--- a/src/test/testdaten_insert_aussertariflicher_verguetungsbestandteil/aussertariflicher Verguetungsbestandteil.xlsx
+++ b/src/test/testdaten_insert_aussertariflicher_verguetungsbestandteil/aussertariflicher Verguetungsbestandteil.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\main\insert personenbezogene Daten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\testdaten_insert_aussertariflicher_verguetungsbestandteil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EC20C6-46D1-40DE-9B0F-8FD8AEF6FECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24332FF2-A2D0-4D50-9114-B2ECB5BE765A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>Personalnummer</t>
   </si>
   <si>
-    <t>M100002</t>
-  </si>
-  <si>
     <t>Verguetungsbestandteil</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>01.05.2023</t>
+  </si>
+  <si>
+    <t>M100001</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -405,20 +405,20 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>7648.15</v>
@@ -426,10 +426,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
